--- a/P0092/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0092/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0092\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C9AC82-FACC-4949-815A-BDF27A3F983B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{17C9AC82-FACC-4949-815A-BDF27A3F983B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A73F465-3E05-4730-B35B-F9F73F7FA913}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,25 +98,25 @@
     <t>PR0001</t>
   </si>
   <si>
-    <t>LA MOJANA 2030: UN PAÍS POSIBLE. Propuestas para ordenarla alrededor del agua</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departamento Nacional de Planeación </t>
+    <t>la-mojana-2030-un-pais-posible</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0092/02_PRODUCTOS/DNP/la-mojana-2030-un-pais-posible.pdf</t>
+  </si>
+  <si>
+    <t>Departamento Nacional de Planeación</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>El documento realiza un planteamiento mediante tres ejes estratégicos de corto, media y largo plazo de acciones para lograr el desarrollo sostenible y resiliente de la región. Para generar mecanismos habilitantes para la construcción prospectiva de La Mojana a 2030.</t>
-  </si>
-  <si>
-    <t>Artículo</t>
-  </si>
-  <si>
-    <t>.pdf</t>
+    <t>El documento presenta un análisis exhaustivo de la región de La Mojana, ubicada en el noroeste de Colombia, que abarca los departamentos de Sucre y Córdoba. Este estudio se centra en la gestión del agua y la resiliencia ante desastres naturales, específicamente inundaciones y sequías, que han afectado recurrentemente a la población y al desarrollo económico de la zona. Este informe, aborda la importancia de La Mojana como una región estratégica para la regulación hídrica, destacando su vulnerabilidad a fenómenos climáticos extremos. Se analizan las condiciones ambientales que contribuyen a la recurrente problemática de inundaciones y sequías. El documento enfatiza la necesidad de implementar intervenciones integrales que reduzcan el riesgo de desastres. Se discuten las fallas en las acciones previas, que han sido desarticuladas y no han logrado mejorar la productividad ni la competitividad de la región. Así mismo, se propone un enfoque de ordenamiento territorial centrado en el agua, la biodiversidad y las comunidades. Se sugiere que la planificación debe considerar el comportamiento hidráulico de los ríos Cauca, Magdalena y San Jorge, así como la articulación de sistemas de monitoreo hidrometeorológico. Para las propuestas de intervención, presentan recomendaciones para la creación de un marco de gobernanza que incluya la participación de diversas entidades gubernamentales y la comunidad. Se sugieren mecanismos de inversión y la creación de instancias de coordinación interinstitucional. Por último, se discute la importancia de fortalecer las capacidades locales para responder a emergencias y desastres, así como la necesidad de realizar estudios de factibilidad para las intervenciones propuestas.</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
   <si>
     <t>La Mojana es una región estratégica de regulación hídrica cuyas condiciones sociales, económicas y ambientales crean riesgos de desastres por las inundaciones recurrentes. Las acciones desarticuladas no han solucionado esa problemática y las inversiones realizadas no han elevado su productividad ni mejorado su competitividad. Este artículo invita a pensar en la construcción de una región que aproveche sus particularidades culturales y ambientales, y presenta algunas propuestas para hacer más efectivas las acciones con una visión prospectiva que ordene La Mojana alrededor del agua.</t>
@@ -128,14 +128,14 @@
     <t>El informe en forma de artículo es una propuesta y no contiene información técnica adjunta.</t>
   </si>
   <si>
-    <t>Dimensiones, Estadísticas Territoriales, Municipios, Entidad Territorial, Gestión Pública, OCDE.</t>
+    <t>Dimensiones, estadísticas territoriales, municipios, entidad territorial, gestión pública, OCDE.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +156,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -245,6 +258,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -582,15 +597,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -598,6 +604,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -617,7 +632,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -907,11 +922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -928,7 +943,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -984,7 +999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +1015,7 @@
       <c r="E2" s="1">
         <v>2023</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1027,20 +1042,20 @@
       <c r="N2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1060,7 +1075,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1080,7 +1095,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1263,27 +1278,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
--- a/P0092/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0092/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0092\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{17C9AC82-FACC-4949-815A-BDF27A3F983B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A73F465-3E05-4730-B35B-F9F73F7FA913}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{17C9AC82-FACC-4949-815A-BDF27A3F983B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE50746D-26F8-4024-BB75-8D616112FFC0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -260,6 +260,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -922,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -999,7 +1002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1030,7 +1033,7 @@
       <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="5" t="s">
